--- a/experiments/data_both_exp.xlsx
+++ b/experiments/data_both_exp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibault\Documents\CHUM_git\gut-microbiota-iron\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30183A41-162F-4381-B41E-CA383E5CF454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3C142-4FFB-41D1-92EF-4F174B69495B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{5ED9B773-304F-4C56-81C6-5CDFE41C886A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5ED9B773-304F-4C56-81C6-5CDFE41C886A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -271,13 +271,16 @@
   </si>
   <si>
     <t>42072B</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,15 +377,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,9 +404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -441,7 +444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -547,7 +550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -689,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,15 +700,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42452665-CE66-4BA9-9D21-65C3E6FB0011}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50:M97"/>
+      <selection activeCell="N50" sqref="N50:N97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,8 +756,11 @@
       <c r="M1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10971</v>
       </c>
@@ -786,8 +800,11 @@
       <c r="M2">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -827,8 +844,11 @@
       <c r="M3">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>33106</v>
       </c>
@@ -868,8 +888,11 @@
       <c r="M4">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -909,8 +932,11 @@
       <c r="M5">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -950,8 +976,11 @@
       <c r="M6">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10959</v>
       </c>
@@ -991,8 +1020,11 @@
       <c r="M7">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1032,8 +1064,11 @@
       <c r="M8">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1073,8 +1108,11 @@
       <c r="M9">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10998</v>
       </c>
@@ -1114,8 +1152,11 @@
       <c r="M10">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1155,8 +1196,11 @@
       <c r="M11">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1196,8 +1240,11 @@
       <c r="M12">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1237,8 +1284,11 @@
       <c r="M13">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1278,8 +1328,11 @@
       <c r="M14">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1319,8 +1372,11 @@
       <c r="M15">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10964</v>
       </c>
@@ -1360,8 +1416,11 @@
       <c r="M16">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1401,8 +1460,11 @@
       <c r="M17">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10995</v>
       </c>
@@ -1442,8 +1504,11 @@
       <c r="M18">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1483,8 +1548,11 @@
       <c r="M19">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>33108</v>
       </c>
@@ -1524,8 +1592,11 @@
       <c r="M20">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1565,8 +1636,11 @@
       <c r="M21">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1606,8 +1680,11 @@
       <c r="M22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10990</v>
       </c>
@@ -1647,8 +1724,11 @@
       <c r="M23">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1688,8 +1768,11 @@
       <c r="M24">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1729,8 +1812,11 @@
       <c r="M25">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>33103</v>
       </c>
@@ -1770,8 +1856,11 @@
       <c r="M26">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1811,8 +1900,11 @@
       <c r="M27">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1852,8 +1944,11 @@
       <c r="M28">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1893,8 +1988,11 @@
       <c r="M29">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1934,8 +2032,11 @@
       <c r="M30">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1975,8 +2076,11 @@
       <c r="M31">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2016,8 +2120,11 @@
       <c r="M32">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2057,8 +2164,11 @@
       <c r="M33">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10968</v>
       </c>
@@ -2098,8 +2208,11 @@
       <c r="M34">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2139,8 +2252,11 @@
       <c r="M35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>33111</v>
       </c>
@@ -2180,8 +2296,11 @@
       <c r="M36">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2221,8 +2340,11 @@
       <c r="M37">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>33110</v>
       </c>
@@ -2262,8 +2384,11 @@
       <c r="M38">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -2303,8 +2428,11 @@
       <c r="M39">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2344,8 +2472,11 @@
       <c r="M40">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -2385,8 +2516,11 @@
       <c r="M41">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2426,8 +2560,11 @@
       <c r="M42">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2467,8 +2604,11 @@
       <c r="M43">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -2508,8 +2648,11 @@
       <c r="M44">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10975</v>
       </c>
@@ -2549,8 +2692,11 @@
       <c r="M45">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2590,8 +2736,11 @@
       <c r="M46">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H47">
         <v>5537.6733333333332</v>
       </c>
@@ -2601,8 +2750,11 @@
       <c r="M47">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>10946</v>
       </c>
@@ -2642,8 +2794,11 @@
       <c r="M48">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -2683,8 +2838,11 @@
       <c r="M49">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42039</v>
       </c>
@@ -2724,8 +2882,11 @@
       <c r="M50">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -2765,8 +2926,11 @@
       <c r="M51">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -2806,8 +2970,11 @@
       <c r="M52">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>42076</v>
       </c>
@@ -2844,8 +3011,11 @@
       <c r="M53">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>42060</v>
       </c>
@@ -2885,8 +3055,11 @@
       <c r="M54">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -2926,8 +3099,11 @@
       <c r="M55">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>42088</v>
       </c>
@@ -2967,8 +3143,11 @@
       <c r="M56">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
@@ -3008,8 +3187,11 @@
       <c r="M57">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>42099</v>
       </c>
@@ -3049,8 +3231,11 @@
       <c r="M58">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
@@ -3090,8 +3275,11 @@
       <c r="M59">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3319,11 @@
       <c r="M60">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>42070</v>
       </c>
@@ -3172,8 +3363,11 @@
       <c r="M61">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3213,8 +3407,11 @@
       <c r="M62">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3254,8 +3451,11 @@
       <c r="M63">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>57</v>
       </c>
@@ -3295,8 +3495,11 @@
       <c r="M64">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>58</v>
       </c>
@@ -3336,8 +3539,11 @@
       <c r="M65">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66">
         <v>500</v>
@@ -3355,8 +3561,11 @@
       <c r="M66">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3605,11 @@
       <c r="M67">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3434,8 +3646,11 @@
       <c r="M68">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3475,8 +3690,11 @@
       <c r="M69">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3516,8 +3734,11 @@
       <c r="M70">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3557,8 +3778,11 @@
       <c r="M71">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3598,8 +3822,11 @@
       <c r="M72">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>42073</v>
       </c>
@@ -3639,8 +3866,11 @@
       <c r="M73">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>65</v>
       </c>
@@ -3680,8 +3910,11 @@
       <c r="M74">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>42056</v>
       </c>
@@ -3721,8 +3954,11 @@
       <c r="M75">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>42043</v>
       </c>
@@ -3762,8 +3998,11 @@
       <c r="M76">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>66</v>
       </c>
@@ -3803,8 +4042,11 @@
       <c r="M77">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>67</v>
       </c>
@@ -3838,8 +4080,11 @@
       <c r="K78">
         <v>164</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>42083</v>
       </c>
@@ -3879,8 +4124,11 @@
       <c r="M79">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>68</v>
       </c>
@@ -3917,8 +4165,11 @@
       <c r="M80">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>40703</v>
       </c>
@@ -3958,8 +4209,11 @@
       <c r="M81">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>69</v>
       </c>
@@ -3996,8 +4250,11 @@
       <c r="M82">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>40707</v>
       </c>
@@ -4034,8 +4291,11 @@
       <c r="M83">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>42064</v>
       </c>
@@ -4075,8 +4335,11 @@
       <c r="M84">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>70</v>
       </c>
@@ -4116,8 +4379,11 @@
       <c r="M85">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>71</v>
       </c>
@@ -4157,8 +4423,11 @@
       <c r="M86">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>72</v>
       </c>
@@ -4198,8 +4467,11 @@
       <c r="M87">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>73</v>
       </c>
@@ -4239,8 +4511,11 @@
       <c r="M88">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>74</v>
       </c>
@@ -4280,8 +4555,11 @@
       <c r="M89">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>75</v>
       </c>
@@ -4318,8 +4596,11 @@
       <c r="M90">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>76</v>
       </c>
@@ -4356,8 +4637,11 @@
       <c r="M91">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>77</v>
       </c>
@@ -4397,8 +4681,11 @@
       <c r="M92">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>78</v>
       </c>
@@ -4435,8 +4722,11 @@
       <c r="M93">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>79</v>
       </c>
@@ -4473,8 +4763,11 @@
       <c r="M94">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>80</v>
       </c>
@@ -4514,8 +4807,11 @@
       <c r="M95">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>42067</v>
       </c>
@@ -4552,8 +4848,11 @@
       <c r="M96">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>81</v>
       </c>
@@ -4589,6 +4888,9 @@
       </c>
       <c r="M97">
         <v>20.2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/data_both_exp.xlsx
+++ b/experiments/data_both_exp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibault\Documents\CHUM_git\gut-microbiota-iron\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3C142-4FFB-41D1-92EF-4F174B69495B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B909FB8-0D58-48B2-BA68-4F743C9B2688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5ED9B773-304F-4C56-81C6-5CDFE41C886A}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -114,9 +125,6 @@
     <t>33102D</t>
   </si>
   <si>
-    <t>109958C</t>
-  </si>
-  <si>
     <t>10979D</t>
   </si>
   <si>
@@ -274,6 +282,15 @@
   </si>
   <si>
     <t>exp</t>
+  </si>
+  <si>
+    <t>lcn2</t>
+  </si>
+  <si>
+    <t>dai_final</t>
+  </si>
+  <si>
+    <t>10958C</t>
   </si>
 </sst>
 </file>
@@ -700,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42452665-CE66-4BA9-9D21-65C3E6FB0011}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50:N97"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,10 +730,10 @@
     <col min="10" max="10" width="15.26953125" customWidth="1"/>
     <col min="11" max="11" width="17.6328125" customWidth="1"/>
     <col min="12" max="12" width="19.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" customWidth="1"/>
+    <col min="13" max="15" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,28 +756,34 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>47</v>
       </c>
       <c r="N1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10971</v>
       </c>
@@ -800,11 +823,11 @@
       <c r="M2">
         <v>19.7</v>
       </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -844,11 +867,11 @@
       <c r="M3">
         <v>20.3</v>
       </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>33106</v>
       </c>
@@ -888,11 +911,11 @@
       <c r="M4">
         <v>20.399999999999999</v>
       </c>
-      <c r="N4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -932,11 +955,11 @@
       <c r="M5">
         <v>21.3</v>
       </c>
-      <c r="N5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -976,11 +999,17 @@
       <c r="M6">
         <v>21.3</v>
       </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <v>2.0313042944785278</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10959</v>
       </c>
@@ -1020,11 +1049,14 @@
       <c r="M7">
         <v>20.399999999999999</v>
       </c>
-      <c r="N7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1064,11 +1096,17 @@
       <c r="M8">
         <v>20.8</v>
       </c>
-      <c r="N8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>17.57522015915119</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1108,11 +1146,17 @@
       <c r="M9">
         <v>21</v>
       </c>
-      <c r="N9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>0.82606567796610175</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10998</v>
       </c>
@@ -1152,11 +1196,11 @@
       <c r="M10">
         <v>19.100000000000001</v>
       </c>
-      <c r="N10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1196,11 +1240,11 @@
       <c r="M11">
         <v>21.8</v>
       </c>
-      <c r="N11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1240,11 +1284,11 @@
       <c r="M12">
         <v>19.899999999999999</v>
       </c>
-      <c r="N12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1284,11 +1328,11 @@
       <c r="M13">
         <v>21.5</v>
       </c>
-      <c r="N13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1328,11 +1372,17 @@
       <c r="M14">
         <v>20.2</v>
       </c>
-      <c r="N14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>124.77045454545453</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1372,11 +1422,17 @@
       <c r="M15">
         <v>19.3</v>
       </c>
-      <c r="N15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>8.4565638297872336</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10964</v>
       </c>
@@ -1416,11 +1472,17 @@
       <c r="M16">
         <v>21.2</v>
       </c>
-      <c r="N16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>9.3986584158415845</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1460,11 +1522,17 @@
       <c r="M17">
         <v>21</v>
       </c>
-      <c r="N17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <v>29.925055172413796</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10995</v>
       </c>
@@ -1504,11 +1572,11 @@
       <c r="M18">
         <v>20.8</v>
       </c>
-      <c r="N18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1548,11 +1616,11 @@
       <c r="M19">
         <v>22.2</v>
       </c>
-      <c r="N19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>33108</v>
       </c>
@@ -1592,11 +1660,11 @@
       <c r="M20">
         <v>20.399999999999999</v>
       </c>
-      <c r="N20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1636,11 +1704,11 @@
       <c r="M21">
         <v>20.8</v>
       </c>
-      <c r="N21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1680,11 +1748,17 @@
       <c r="M22">
         <v>21</v>
       </c>
-      <c r="N22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <v>27.132922413793104</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10990</v>
       </c>
@@ -1724,11 +1798,17 @@
       <c r="M23">
         <v>20.3</v>
       </c>
-      <c r="N23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N23">
+        <v>108.42957746478875</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1768,11 +1848,14 @@
       <c r="M24">
         <v>22.6</v>
       </c>
-      <c r="N24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1812,11 +1895,17 @@
       <c r="M25">
         <v>20.2</v>
       </c>
-      <c r="N25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N25">
+        <v>30.181033707865168</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>33103</v>
       </c>
@@ -1856,11 +1945,11 @@
       <c r="M26">
         <v>18.3</v>
       </c>
-      <c r="N26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1900,11 +1989,11 @@
       <c r="M27">
         <v>22.6</v>
       </c>
-      <c r="N27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1944,11 +2033,11 @@
       <c r="M28">
         <v>23.1</v>
       </c>
-      <c r="N28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1988,11 +2077,11 @@
       <c r="M29">
         <v>20.8</v>
       </c>
-      <c r="N29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2032,13 +2121,19 @@
       <c r="M30">
         <v>20.399999999999999</v>
       </c>
-      <c r="N30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N30">
+        <v>66.63954861111111</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <v>500</v>
@@ -2076,13 +2171,19 @@
       <c r="M31">
         <v>21.6</v>
       </c>
-      <c r="N31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N31">
+        <v>13.423350553505534</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>500</v>
@@ -2120,13 +2221,19 @@
       <c r="M32">
         <v>21.4</v>
       </c>
-      <c r="N32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N32">
+        <v>29.042615384615384</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>500</v>
@@ -2164,11 +2271,17 @@
       <c r="M33">
         <v>21.6</v>
       </c>
-      <c r="N33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N33">
+        <v>65.914189189189187</v>
+      </c>
+      <c r="O33">
+        <v>8</v>
+      </c>
+      <c r="P33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10968</v>
       </c>
@@ -2208,13 +2321,13 @@
       <c r="M34">
         <v>21.7</v>
       </c>
-      <c r="N34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>50</v>
@@ -2252,11 +2365,11 @@
       <c r="M35">
         <v>20</v>
       </c>
-      <c r="N35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>33111</v>
       </c>
@@ -2296,13 +2409,13 @@
       <c r="M36">
         <v>20.8</v>
       </c>
-      <c r="N36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>50</v>
@@ -2340,11 +2453,11 @@
       <c r="M37">
         <v>21.4</v>
       </c>
-      <c r="N37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>33110</v>
       </c>
@@ -2384,13 +2497,16 @@
       <c r="M38">
         <v>20.3</v>
       </c>
-      <c r="N38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="P38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39">
         <v>50</v>
@@ -2428,13 +2544,19 @@
       <c r="M39">
         <v>22</v>
       </c>
-      <c r="N39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N39">
+        <v>46.630864485981306</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+      <c r="P39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40">
         <v>50</v>
@@ -2472,13 +2594,16 @@
       <c r="M40">
         <v>19.8</v>
       </c>
-      <c r="N40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41">
         <v>50</v>
@@ -2516,13 +2641,16 @@
       <c r="M41">
         <v>20.7</v>
       </c>
-      <c r="N41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42">
         <v>500</v>
@@ -2560,13 +2688,13 @@
       <c r="M42">
         <v>20.5</v>
       </c>
-      <c r="N42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>500</v>
@@ -2604,13 +2732,13 @@
       <c r="M43">
         <v>20.3</v>
       </c>
-      <c r="N43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44">
         <v>500</v>
@@ -2648,11 +2776,11 @@
       <c r="M44">
         <v>20.399999999999999</v>
       </c>
-      <c r="N44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10975</v>
       </c>
@@ -2692,13 +2820,13 @@
       <c r="M45">
         <v>19.600000000000001</v>
       </c>
-      <c r="N45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46">
         <v>500</v>
@@ -2736,11 +2864,17 @@
       <c r="M46">
         <v>20.5</v>
       </c>
-      <c r="N46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N46">
+        <v>107.70576470588233</v>
+      </c>
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="P46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H47">
         <v>5537.6733333333332</v>
       </c>
@@ -2750,11 +2884,14 @@
       <c r="M47">
         <v>19.899999999999999</v>
       </c>
-      <c r="N47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O47">
+        <v>8</v>
+      </c>
+      <c r="P47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>10946</v>
       </c>
@@ -2794,13 +2931,19 @@
       <c r="M48">
         <v>20.5</v>
       </c>
-      <c r="N48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N48">
+        <v>180.69787500000001</v>
+      </c>
+      <c r="O48">
+        <v>6</v>
+      </c>
+      <c r="P48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49">
         <v>500</v>
@@ -2838,11 +2981,14 @@
       <c r="M49">
         <v>21.1</v>
       </c>
-      <c r="N49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O49">
+        <v>6</v>
+      </c>
+      <c r="P49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42039</v>
       </c>
@@ -2882,13 +3028,13 @@
       <c r="M50">
         <v>20.5</v>
       </c>
-      <c r="N50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -2926,19 +3072,19 @@
       <c r="M51">
         <v>20.2</v>
       </c>
-      <c r="N51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="2">
         <v>26.8</v>
@@ -2970,11 +3116,11 @@
       <c r="M52">
         <v>22.7</v>
       </c>
-      <c r="N52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>42076</v>
       </c>
@@ -2982,7 +3128,7 @@
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2">
         <v>26</v>
@@ -3011,11 +3157,11 @@
       <c r="M53">
         <v>22.1</v>
       </c>
-      <c r="N53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>42060</v>
       </c>
@@ -3055,13 +3201,13 @@
       <c r="M54">
         <v>21.7</v>
       </c>
-      <c r="N54" t="s">
+      <c r="P54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B55">
         <v>50</v>
@@ -3099,11 +3245,11 @@
       <c r="M55">
         <v>21</v>
       </c>
-      <c r="N55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>42088</v>
       </c>
@@ -3111,7 +3257,7 @@
         <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" s="2">
         <v>23.7</v>
@@ -3143,19 +3289,19 @@
       <c r="M56">
         <v>19.899999999999999</v>
       </c>
-      <c r="N56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57">
         <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" s="2">
         <v>23.2</v>
@@ -3187,11 +3333,11 @@
       <c r="M57">
         <v>19.399999999999999</v>
       </c>
-      <c r="N57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>42099</v>
       </c>
@@ -3231,13 +3377,13 @@
       <c r="M58">
         <v>17.8</v>
       </c>
-      <c r="N58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59">
         <v>50</v>
@@ -3275,19 +3421,19 @@
       <c r="M59">
         <v>19.7</v>
       </c>
-      <c r="N59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" s="2">
         <v>24.5</v>
@@ -3319,11 +3465,11 @@
       <c r="M60">
         <v>21</v>
       </c>
-      <c r="N60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>42070</v>
       </c>
@@ -3331,7 +3477,7 @@
         <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" s="2">
         <v>22.7</v>
@@ -3363,13 +3509,13 @@
       <c r="M61">
         <v>19.2</v>
       </c>
-      <c r="N61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62">
         <v>500</v>
@@ -3407,13 +3553,13 @@
       <c r="M62">
         <v>22</v>
       </c>
-      <c r="N62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>500</v>
@@ -3451,19 +3597,19 @@
       <c r="M63">
         <v>22.3</v>
       </c>
-      <c r="N63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64">
         <v>500</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" s="2">
         <v>23</v>
@@ -3495,19 +3641,19 @@
       <c r="M64">
         <v>19.7</v>
       </c>
-      <c r="N64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65">
         <v>500</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D65" s="2">
         <v>22</v>
@@ -3539,11 +3685,11 @@
       <c r="M65">
         <v>19.899999999999999</v>
       </c>
-      <c r="N65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66">
         <v>500</v>
@@ -3561,13 +3707,13 @@
       <c r="M66">
         <v>21.1</v>
       </c>
-      <c r="N66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67">
         <v>500</v>
@@ -3605,19 +3751,19 @@
       <c r="M67">
         <v>19.399999999999999</v>
       </c>
-      <c r="N67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68">
         <v>500</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D68" s="2">
         <v>23.1</v>
@@ -3646,19 +3792,19 @@
       <c r="M68">
         <v>20.5</v>
       </c>
-      <c r="N68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69">
         <v>500</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D69" s="2">
         <v>21.7</v>
@@ -3690,13 +3836,13 @@
       <c r="M69">
         <v>20.7</v>
       </c>
-      <c r="N69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70">
         <v>500</v>
@@ -3734,13 +3880,13 @@
       <c r="M70">
         <v>19</v>
       </c>
-      <c r="N70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71">
         <v>500</v>
@@ -3778,19 +3924,19 @@
       <c r="M71">
         <v>21</v>
       </c>
-      <c r="N71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72">
         <v>500</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72" s="2">
         <v>25.5</v>
@@ -3822,11 +3968,11 @@
       <c r="M72">
         <v>20.5</v>
       </c>
-      <c r="N72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>42073</v>
       </c>
@@ -3834,7 +3980,7 @@
         <v>500</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D73" s="3">
         <v>24</v>
@@ -3866,13 +4012,13 @@
       <c r="M73">
         <v>20.399999999999999</v>
       </c>
-      <c r="N73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74">
         <v>50</v>
@@ -3910,11 +4056,11 @@
       <c r="M74">
         <v>20.8</v>
       </c>
-      <c r="N74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>42056</v>
       </c>
@@ -3954,11 +4100,11 @@
       <c r="M75">
         <v>20.7</v>
       </c>
-      <c r="N75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>42043</v>
       </c>
@@ -3966,7 +4112,7 @@
         <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D76" s="2">
         <v>22.5</v>
@@ -3998,19 +4144,19 @@
       <c r="M76">
         <v>20.3</v>
       </c>
-      <c r="N76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77">
         <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" s="2">
         <v>22.1</v>
@@ -4042,13 +4188,13 @@
       <c r="M77">
         <v>21.7</v>
       </c>
-      <c r="N77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78">
         <v>50</v>
@@ -4080,11 +4226,11 @@
       <c r="K78">
         <v>164</v>
       </c>
-      <c r="N78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>42083</v>
       </c>
@@ -4124,19 +4270,19 @@
       <c r="M79">
         <v>21.9</v>
       </c>
-      <c r="N79" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80">
         <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D80" s="2">
         <v>23.6</v>
@@ -4165,11 +4311,11 @@
       <c r="M80">
         <v>22.1</v>
       </c>
-      <c r="N80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>40703</v>
       </c>
@@ -4177,7 +4323,7 @@
         <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D81" s="2">
         <v>24.6</v>
@@ -4209,13 +4355,13 @@
       <c r="M81">
         <v>20.5</v>
       </c>
-      <c r="N81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82">
         <v>50</v>
@@ -4250,11 +4396,11 @@
       <c r="M82">
         <v>21.6</v>
       </c>
-      <c r="N82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>40707</v>
       </c>
@@ -4291,11 +4437,11 @@
       <c r="M83">
         <v>21.3</v>
       </c>
-      <c r="N83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>42064</v>
       </c>
@@ -4303,7 +4449,7 @@
         <v>50</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D84" s="2">
         <v>22.1</v>
@@ -4335,19 +4481,19 @@
       <c r="M84">
         <v>21.9</v>
       </c>
-      <c r="N84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85">
         <v>50</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D85" s="2">
         <v>21.6</v>
@@ -4379,13 +4525,13 @@
       <c r="M85">
         <v>19.8</v>
       </c>
-      <c r="N85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86">
         <v>500</v>
@@ -4423,13 +4569,13 @@
       <c r="M86">
         <v>20.6</v>
       </c>
-      <c r="N86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87">
         <v>500</v>
@@ -4467,19 +4613,19 @@
       <c r="M87">
         <v>19.8</v>
       </c>
-      <c r="N87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88">
         <v>500</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D88" s="2">
         <v>25.6</v>
@@ -4511,19 +4657,19 @@
       <c r="M88">
         <v>20.6</v>
       </c>
-      <c r="N88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89">
         <v>500</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D89" s="2">
         <v>26.4</v>
@@ -4555,13 +4701,13 @@
       <c r="M89">
         <v>21.6</v>
       </c>
-      <c r="N89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90">
         <v>500</v>
@@ -4596,13 +4742,13 @@
       <c r="M90">
         <v>21.4</v>
       </c>
-      <c r="N90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91">
         <v>500</v>
@@ -4637,19 +4783,19 @@
       <c r="M91">
         <v>22.3</v>
       </c>
-      <c r="N91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92">
         <v>500</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D92" s="2">
         <v>22.5</v>
@@ -4681,19 +4827,19 @@
       <c r="M92">
         <v>19.899999999999999</v>
       </c>
-      <c r="N92" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93">
         <v>500</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D93" s="2">
         <v>23.6</v>
@@ -4722,13 +4868,13 @@
       <c r="M93">
         <v>19</v>
       </c>
-      <c r="N93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94">
         <v>500</v>
@@ -4763,13 +4909,13 @@
       <c r="M94">
         <v>20.5</v>
       </c>
-      <c r="N94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95">
         <v>500</v>
@@ -4807,11 +4953,11 @@
       <c r="M95">
         <v>20.9</v>
       </c>
-      <c r="N95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>42067</v>
       </c>
@@ -4819,7 +4965,7 @@
         <v>500</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D96" s="2">
         <v>24.5</v>
@@ -4848,19 +4994,19 @@
       <c r="M96">
         <v>21.2</v>
       </c>
-      <c r="N96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B97">
         <v>500</v>
       </c>
       <c r="C97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D97" s="2">
         <v>22.8</v>
@@ -4889,8 +5035,8 @@
       <c r="M97">
         <v>20.2</v>
       </c>
-      <c r="N97" t="s">
-        <v>50</v>
+      <c r="P97" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
